--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
@@ -55,196 +58,196 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>cake</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>pie</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>far</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>new</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>buy</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -616,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3023255813953488</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,63 +780,87 @@
         <v>10</v>
       </c>
       <c r="B5">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>77</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>0.890625</v>
+      </c>
+      <c r="L5">
+        <v>114</v>
+      </c>
+      <c r="M5">
+        <v>114</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>0.1243243243243243</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>23</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>162</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>0.8591331269349846</v>
-      </c>
-      <c r="L5">
-        <v>555</v>
-      </c>
-      <c r="M5">
-        <v>555</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.8436532507739938</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>545</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>545</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,21 +872,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.7922077922077922</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L7">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,21 +898,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,21 +924,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7316017316017316</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,21 +950,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.6986301369863014</v>
+        <v>0.70995670995671</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -949,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.6956521739130435</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -975,21 +1002,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.6711864406779661</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L12">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1001,21 +1028,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6571428571428571</v>
+        <v>0.6542372881355932</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1027,12 +1054,12 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
         <v>0.6470588235294118</v>
@@ -1058,16 +1085,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6461538461538462</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1079,21 +1106,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6444444444444445</v>
+        <v>0.6332263242375602</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>789</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>789</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1105,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.637239165329053</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L17">
-        <v>794</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>794</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1131,21 +1158,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>452</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6363636363636364</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1157,47 +1184,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19">
+        <v>0.5625</v>
+      </c>
+      <c r="L19">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <v>36</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>28</v>
-      </c>
-      <c r="K19">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="L19">
-        <v>44</v>
-      </c>
-      <c r="M19">
-        <v>44</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6197183098591549</v>
+        <v>0.5625</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1209,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5972222222222222</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1235,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5641025641025641</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L22">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1261,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5614035087719298</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1287,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5573770491803278</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1313,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5329341317365269</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L25">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1339,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.515625</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1365,21 +1392,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1391,21 +1418,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4901960784313725</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1417,21 +1444,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.4791666666666667</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1443,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.4736842105263158</v>
+        <v>0.41</v>
       </c>
       <c r="L30">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1469,21 +1496,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.4736842105263158</v>
+        <v>0.382716049382716</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1495,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.4698795180722892</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1521,21 +1548,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.4457831325301205</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L33">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="M33">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1547,21 +1574,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.4285714285714285</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1573,21 +1600,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.3872549019607843</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L35">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1599,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.38</v>
+        <v>0.3406862745098039</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1625,21 +1652,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>62</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.3383458646616541</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L37">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1651,21 +1678,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.3229571984435798</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L38">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1677,21 +1704,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>174</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.3157894736842105</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1703,21 +1730,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.3123287671232877</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L40">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="M40">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1729,21 +1756,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>502</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.2962962962962963</v>
+        <v>0.2835616438356164</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1755,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>57</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.2792792792792793</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1781,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>80</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.2648008611410119</v>
+        <v>0.2508073196986007</v>
       </c>
       <c r="L43">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="M43">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1807,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>683</v>
+        <v>696</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.2440191387559809</v>
+        <v>0.25</v>
       </c>
       <c r="L44">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M44">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1833,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>158</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.2382445141065831</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L45">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M45">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1859,12 +1886,12 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K46">
         <v>0.2178217821782178</v>
@@ -1890,16 +1917,16 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.212962962962963</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1911,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K48">
         <v>0.2119205298013245</v>
       </c>
       <c r="L48">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="M48">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1937,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>119</v>
+        <v>595</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.2086330935251799</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1963,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.1986754966887417</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="L50">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1989,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>605</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.1981981981981982</v>
+        <v>0.1854219948849105</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2015,73 +2042,73 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>89</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.1828644501278772</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L52">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>639</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.1677852348993289</v>
+        <v>0.1327913279132791</v>
       </c>
       <c r="L53">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>124</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.1581508515815085</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L54">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M54">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2093,47 +2120,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>346</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.1378378378378378</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L55">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>319</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.1218487394957983</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2145,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>209</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.1182266009852217</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2171,47 +2198,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>179</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.1099656357388316</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M58">
         <v>32</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.1030701754385965</v>
+        <v>0.1133004926108374</v>
       </c>
       <c r="L59">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2223,21 +2250,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>409</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.1002386634844869</v>
+        <v>0.1096491228070175</v>
       </c>
       <c r="L60">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M60">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2249,21 +2276,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>377</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.1</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="L61">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M61">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2275,21 +2302,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.09772727272727273</v>
+        <v>0.08353221957040573</v>
       </c>
       <c r="L62">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M62">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2301,21 +2328,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.0959409594095941</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L63">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M63">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2327,47 +2354,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>245</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.07182835820895522</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L64">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="M64">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>995</v>
+        <v>649</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.06025824964131994</v>
+        <v>0.05788982259570495</v>
       </c>
       <c r="L65">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M65">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="N65">
         <v>0.98</v>
@@ -2379,15 +2406,15 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>655</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.06010928961748634</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="L66">
         <v>22</v>
@@ -2405,21 +2432,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>344</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.0583756345177665</v>
+        <v>0.04428044280442804</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2431,33 +2458,33 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>371</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.03206239168110919</v>
+        <v>0.03802938634399308</v>
       </c>
       <c r="L68">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M68">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N68">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
